--- a/branches/master/StructureDefinition-FoodAllergyModel.xlsx
+++ b/branches/master/StructureDefinition-FoodAllergyModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-19T09:02:04+00:00</t>
+    <t>2022-06-19T10:29:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
